--- a/teaching/traditional_assets/database/data/ghana/ghana_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/ghana/ghana_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.129</v>
+        <v>0.158</v>
       </c>
       <c r="E2">
-        <v>0.0565</v>
+        <v>0.148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004569836195956979</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003115661954062589</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>243.3</v>
+        <v>301</v>
       </c>
       <c r="L2">
-        <v>0.2980521866960676</v>
+        <v>0.3266767961797265</v>
       </c>
       <c r="M2">
-        <v>51.17</v>
+        <v>78.122</v>
       </c>
       <c r="N2">
-        <v>0.03958687915828563</v>
+        <v>0.07018417033510017</v>
       </c>
       <c r="O2">
-        <v>0.2103164817098233</v>
+        <v>0.2595415282392027</v>
       </c>
       <c r="P2">
-        <v>51.17</v>
+        <v>78.09800000000001</v>
       </c>
       <c r="Q2">
-        <v>0.03958687915828563</v>
+        <v>0.07016260893001529</v>
       </c>
       <c r="R2">
-        <v>0.2103164817098233</v>
+        <v>0.2594617940199336</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.02399999999999913</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0003072117969329911</v>
       </c>
       <c r="U2">
-        <v>1425.1</v>
+        <v>1622.2</v>
       </c>
       <c r="V2">
-        <v>1.102506575893548</v>
+        <v>1.4573713053634</v>
       </c>
       <c r="W2">
-        <v>0.210450623202301</v>
+        <v>0.279407025459233</v>
       </c>
       <c r="X2">
-        <v>0.07981183824063109</v>
+        <v>0.07401808066656144</v>
       </c>
       <c r="Y2">
-        <v>0.1306387849616699</v>
+        <v>0.2053889447926716</v>
       </c>
       <c r="Z2">
-        <v>5.042056870295284</v>
+        <v>2.373518804739824</v>
       </c>
       <c r="AA2">
         <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.0768140434579178</v>
+        <v>0.07207246379987498</v>
       </c>
       <c r="AC2">
-        <v>-0.07964854373642531</v>
+        <v>-0.07207246379987498</v>
       </c>
       <c r="AD2">
-        <v>700.8</v>
+        <v>565.7</v>
       </c>
       <c r="AE2">
-        <v>4.998213566201594</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>705.7982135662015</v>
+        <v>565.7</v>
       </c>
       <c r="AG2">
-        <v>-719.3017864337984</v>
+        <v>-1056.5</v>
       </c>
       <c r="AH2">
-        <v>0.3531819678254633</v>
+        <v>0.3369668811055516</v>
       </c>
       <c r="AI2">
-        <v>0.388121477547169</v>
+        <v>0.3048773915386688</v>
       </c>
       <c r="AJ2">
-        <v>-1.254672994634645</v>
+        <v>-18.66607773851593</v>
       </c>
       <c r="AK2">
-        <v>-1.828431755989032</v>
+        <v>-4.528504072010288</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>148.1606765327695</v>
-      </c>
-      <c r="AP2">
-        <v>-152.0722592883295</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ecobank Ghana Limited (GHSE:EGH)</t>
+          <t>Standard Chartered Bank Ghana Limited (GHSE:SCB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.126</v>
+        <v>0.162</v>
       </c>
       <c r="E3">
-        <v>0.0709</v>
+        <v>0.212</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,82 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>77.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="L3">
-        <v>0.3076616121308858</v>
+        <v>0.4336075205640423</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>36.7</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.09721854304635762</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.497289972899729</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>36.7</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.09721854304635762</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.497289972899729</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>410.7</v>
+        <v>557.5</v>
       </c>
       <c r="V3">
-        <v>0.9212651413189771</v>
+        <v>1.47682119205298</v>
       </c>
       <c r="W3">
-        <v>0.3051048674317372</v>
+        <v>0.3614103819784525</v>
       </c>
       <c r="X3">
-        <v>0.06693741735055643</v>
+        <v>0.06378551655920309</v>
       </c>
       <c r="Y3">
-        <v>0.2381674500811808</v>
+        <v>0.2976248654192494</v>
       </c>
       <c r="Z3">
-        <v>-6.664893617021282</v>
+        <v>-2.103831891223732</v>
       </c>
       <c r="AA3">
         <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06700700447892491</v>
+        <v>0.06353193794611091</v>
       </c>
       <c r="AC3">
-        <v>-0.06700700447892491</v>
+        <v>-0.06353193794611091</v>
       </c>
       <c r="AD3">
-        <v>13.6</v>
+        <v>15.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.6</v>
+        <v>15.9</v>
       </c>
       <c r="AG3">
-        <v>-397.1</v>
+        <v>-541.6</v>
       </c>
       <c r="AH3">
-        <v>0.02960383108402264</v>
+        <v>0.04041687849517031</v>
       </c>
       <c r="AI3">
-        <v>0.04196235729713051</v>
+        <v>0.06382978723404256</v>
       </c>
       <c r="AJ3">
-        <v>-8.154004106776172</v>
+        <v>3.300426569165143</v>
       </c>
       <c r="AK3">
-        <v>4.585450346420325</v>
+        <v>1.756160830090791</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GCB Bank Limited (GHSE:GCB)</t>
+          <t>Ecobank Ghana Limited (GHSE:EGH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.149</v>
+        <v>0.0975</v>
       </c>
       <c r="E4">
-        <v>0.0564</v>
+        <v>0.0545</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>73.2</v>
+        <v>86.7</v>
       </c>
       <c r="L4">
-        <v>0.2761222180309317</v>
+        <v>0.3244760479041917</v>
       </c>
       <c r="M4">
-        <v>14.6</v>
+        <v>16.7752</v>
       </c>
       <c r="N4">
-        <v>0.06260720411663807</v>
+        <v>0.04205364753070946</v>
       </c>
       <c r="O4">
-        <v>0.1994535519125683</v>
+        <v>0.1934855824682814</v>
       </c>
       <c r="P4">
-        <v>14.6</v>
+        <v>16.7752</v>
       </c>
       <c r="Q4">
-        <v>0.06260720411663807</v>
+        <v>0.04205364753070946</v>
       </c>
       <c r="R4">
-        <v>0.1994535519125683</v>
+        <v>0.1934855824682814</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -886,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>353.9</v>
+        <v>436.7</v>
       </c>
       <c r="V4">
-        <v>1.517581475128645</v>
+        <v>1.094760591626974</v>
       </c>
       <c r="W4">
-        <v>0.2719167904903418</v>
+        <v>0.279407025459233</v>
       </c>
       <c r="X4">
-        <v>0.07271394867663469</v>
+        <v>0.06468905854663469</v>
       </c>
       <c r="Y4">
-        <v>0.1992028418137071</v>
+        <v>0.2147179669125983</v>
       </c>
       <c r="Z4">
-        <v>1.966617210682493</v>
+        <v>-3.078341013824886</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.07215361184273641</v>
+        <v>0.06474438143933785</v>
       </c>
       <c r="AC4">
-        <v>-0.07215361184273641</v>
+        <v>-0.06474438143933785</v>
       </c>
       <c r="AD4">
-        <v>45.6</v>
+        <v>25.9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>45.6</v>
+        <v>25.9</v>
       </c>
       <c r="AG4">
-        <v>-308.3</v>
+        <v>-410.8</v>
       </c>
       <c r="AH4">
-        <v>0.163558106169297</v>
+        <v>0.06096986817325801</v>
       </c>
       <c r="AI4">
-        <v>0.1342360906682367</v>
+        <v>0.06671818650180319</v>
       </c>
       <c r="AJ4">
-        <v>4.105193075898803</v>
+        <v>34.52100840336124</v>
       </c>
       <c r="AK4">
-        <v>21.7112676056339</v>
+        <v>8.470103092783505</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -951,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Societe Generale Ghana Limited (GHSE:SOGEGH)</t>
+          <t>GCB Bank Limited (GHSE:GCB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.172</v>
+        <v>0.194</v>
       </c>
       <c r="E5">
-        <v>0.142</v>
+        <v>0.148</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,34 +969,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.0005562428873812004</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.0003484158745134991</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.1</v>
+        <v>85</v>
       </c>
       <c r="L5">
-        <v>0.2209302325581395</v>
+        <v>0.2812706816677697</v>
       </c>
       <c r="M5">
-        <v>5.23</v>
+        <v>9.24</v>
       </c>
       <c r="N5">
-        <v>0.05856662933930572</v>
+        <v>0.05010845986984815</v>
       </c>
       <c r="O5">
-        <v>0.3058479532163743</v>
+        <v>0.1087058823529412</v>
       </c>
       <c r="P5">
-        <v>5.23</v>
+        <v>9.24</v>
       </c>
       <c r="Q5">
-        <v>0.05856662933930572</v>
+        <v>0.05010845986984815</v>
       </c>
       <c r="R5">
-        <v>0.3058479532163743</v>
+        <v>0.1087058823529412</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1008,67 +1005,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>76.90000000000001</v>
+        <v>383.2</v>
       </c>
       <c r="V5">
-        <v>0.8611422172452409</v>
+        <v>2.078091106290672</v>
       </c>
       <c r="W5">
-        <v>0.1623931623931624</v>
+        <v>0.2890173410404624</v>
       </c>
       <c r="X5">
-        <v>0.08627721157158026</v>
+        <v>0.07401808066656144</v>
       </c>
       <c r="Y5">
-        <v>0.07611595082158214</v>
+        <v>0.2149992603739009</v>
       </c>
       <c r="Z5">
-        <v>1.946422287355718</v>
+        <v>-21.28169014084517</v>
       </c>
       <c r="AA5">
-        <v>-0.0006781644234216078</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.0789703793130037</v>
+        <v>0.07207246379987498</v>
       </c>
       <c r="AC5">
-        <v>-0.07964854373642531</v>
+        <v>-0.07207246379987498</v>
       </c>
       <c r="AD5">
-        <v>51.7</v>
+        <v>55.4</v>
       </c>
       <c r="AE5">
-        <v>0.3652659974165245</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>52.06526599741652</v>
+        <v>55.4</v>
       </c>
       <c r="AG5">
-        <v>-24.83473400258348</v>
+        <v>-327.8</v>
       </c>
       <c r="AH5">
-        <v>0.3683031021097363</v>
+        <v>0.2310258548790659</v>
       </c>
       <c r="AI5">
-        <v>0.2722149561547667</v>
+        <v>0.1354854487649792</v>
       </c>
       <c r="AJ5">
-        <v>-0.3852420930610718</v>
+        <v>2.285913528591353</v>
       </c>
       <c r="AK5">
-        <v>-0.2171527673720839</v>
+        <v>-12.75486381322958</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>1723.333333333333</v>
-      </c>
-      <c r="AP5">
-        <v>-827.8244667527828</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Standard Chartered Bank Ghana Limited (GHSE:SCB)</t>
+          <t>Societe Generale Ghana Limited (GHSE:SOGEGH)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,10 +1079,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.07400000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="E6">
-        <v>-0.018</v>
+        <v>0.237</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1100,34 +1091,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02945675633288826</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02046125954135751</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>43.9</v>
+        <v>24.3</v>
       </c>
       <c r="L6">
-        <v>0.3427010148321624</v>
+        <v>0.2825581395348837</v>
       </c>
       <c r="M6">
-        <v>25.8</v>
+        <v>5.672800000000001</v>
       </c>
       <c r="N6">
-        <v>0.05946070523162019</v>
+        <v>0.07272820512820513</v>
       </c>
       <c r="O6">
-        <v>0.5876993166287017</v>
+        <v>0.2334485596707819</v>
       </c>
       <c r="P6">
-        <v>25.8</v>
+        <v>5.672800000000001</v>
       </c>
       <c r="Q6">
-        <v>0.05946070523162019</v>
+        <v>0.07272820512820513</v>
       </c>
       <c r="R6">
-        <v>0.5876993166287017</v>
+        <v>0.2334485596707819</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1136,67 +1127,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>453.3</v>
+        <v>156.5</v>
       </c>
       <c r="V6">
-        <v>1.044710762848583</v>
+        <v>2.006410256410256</v>
       </c>
       <c r="W6">
-        <v>0.210450623202301</v>
+        <v>0.1745689655172414</v>
       </c>
       <c r="X6">
-        <v>0.07981183824063109</v>
+        <v>0.1024408489514024</v>
       </c>
       <c r="Y6">
-        <v>0.1306387849616699</v>
+        <v>0.07212811656583899</v>
       </c>
       <c r="Z6">
-        <v>-0.4293369490906908</v>
+        <v>0.7543859649122809</v>
       </c>
       <c r="AA6">
-        <v>-0.00878477474603922</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0768140434579178</v>
+        <v>0.08385478722217873</v>
       </c>
       <c r="AC6">
-        <v>-0.08559881820395703</v>
+        <v>-0.08385478722217873</v>
       </c>
       <c r="AD6">
-        <v>168.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AE6">
-        <v>4.632947568785069</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>172.832947568785</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="AG6">
-        <v>-280.4670524312149</v>
+        <v>-77.09999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.2848583520333566</v>
+        <v>0.5044472681067345</v>
       </c>
       <c r="AI6">
-        <v>0.4584027700583217</v>
+        <v>0.3371549893842888</v>
       </c>
       <c r="AJ6">
-        <v>-1.827945411173696</v>
+        <v>-85.66666666666612</v>
       </c>
       <c r="AK6">
-        <v>3.677434009714318</v>
+        <v>-0.9759493670886076</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>35.78723404255319</v>
-      </c>
-      <c r="AP6">
-        <v>-59.67384094281169</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CAL Bank Limited (GHSE:CAL)</t>
+          <t>CalBank PLC (GHSE:CAL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,10 +1201,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.129</v>
+        <v>0.09119999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0565</v>
+        <v>0.0272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,85 +1219,85 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>32</v>
+        <v>31.2</v>
       </c>
       <c r="L7">
-        <v>0.3364879074658255</v>
+        <v>0.325678496868476</v>
       </c>
       <c r="M7">
-        <v>5.54</v>
+        <v>9.734</v>
       </c>
       <c r="N7">
-        <v>0.06128318584070796</v>
+        <v>0.1310094212651413</v>
       </c>
       <c r="O7">
-        <v>0.173125</v>
+        <v>0.3119871794871795</v>
       </c>
       <c r="P7">
-        <v>5.54</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.06128318584070796</v>
+        <v>0.1306864064602961</v>
       </c>
       <c r="R7">
-        <v>0.173125</v>
+        <v>0.3112179487179488</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.02399999999999913</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.002465584549003404</v>
       </c>
       <c r="U7">
-        <v>130.3</v>
+        <v>88.3</v>
       </c>
       <c r="V7">
-        <v>1.441371681415929</v>
+        <v>1.18842530282638</v>
       </c>
       <c r="W7">
-        <v>0.2056555269922879</v>
+        <v>0.1894353369763206</v>
       </c>
       <c r="X7">
-        <v>0.2291486980579135</v>
+        <v>0.2695644019956929</v>
       </c>
       <c r="Y7">
-        <v>-0.02349317106562557</v>
+        <v>-0.08012906501937234</v>
       </c>
       <c r="Z7">
-        <v>0.2941540364986081</v>
+        <v>0.2100416575312432</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.09750791718870985</v>
+        <v>0.09151129941650554</v>
       </c>
       <c r="AC7">
-        <v>-0.09750791718870985</v>
+        <v>-0.09151129941650554</v>
       </c>
       <c r="AD7">
-        <v>421.7</v>
+        <v>389.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>421.7</v>
+        <v>389.1</v>
       </c>
       <c r="AG7">
-        <v>291.4</v>
+        <v>300.8</v>
       </c>
       <c r="AH7">
-        <v>0.8234719781292715</v>
+        <v>0.839663357790246</v>
       </c>
       <c r="AI7">
-        <v>0.7191336971350614</v>
+        <v>0.6781108400139423</v>
       </c>
       <c r="AJ7">
-        <v>0.7632268203247774</v>
+        <v>0.8019194881364969</v>
       </c>
       <c r="AK7">
-        <v>0.6388949791712344</v>
+        <v>0.61956745623069</v>
       </c>
       <c r="AL7">
         <v>0</v>
